--- a/biology/Médecine/District_hospitalier_d'Ostrobotnie_centrale/District_hospitalier_d'Ostrobotnie_centrale.xlsx
+++ b/biology/Médecine/District_hospitalier_d'Ostrobotnie_centrale/District_hospitalier_d'Ostrobotnie_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Ostrobotnie_centrale</t>
+          <t>District_hospitalier_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le district hospitalier d'Ostrobotnie centrale (sigle KP) est un district hospitalier regroupant des municipalités des régions d'Ostrobotnie centrale, d'Ostrobotnie et d'Ostrobotnie du Nord.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Ostrobotnie_centrale</t>
+          <t>District_hospitalier_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le consortium siège à Kokkola[1]. 
-Le district hospitalier d'Ostrobotnie centrale appartient à la zone de responsabilité spéciale de l'hôpital universitaire d'Oulu[2].
-Les municipalités membres comptent environ 78 000 personnes (31.12.2018)[3],[2].
-L'hôpital central d'Ostrobotnie centrale de Kokkola est l'hôpital de proximité pour près de 200 000 habitants[3].
-Près de 42 000 patients y sont soignés chaque année[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le consortium siège à Kokkola. 
+Le district hospitalier d'Ostrobotnie centrale appartient à la zone de responsabilité spéciale de l'hôpital universitaire d'Oulu.
+Les municipalités membres comptent environ 78 000 personnes (31.12.2018),.
+L'hôpital central d'Ostrobotnie centrale de Kokkola est l'hôpital de proximité pour près de 200 000 habitants.
+Près de 42 000 patients y sont soignés chaque année.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Ostrobotnie_centrale</t>
+          <t>District_hospitalier_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Municipalités membres et contractuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Communes membres[3],[1]:
-Communes contractuelles[3]:</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Communes membres,:
+Communes contractuelles:</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Ostrobotnie_centrale</t>
+          <t>District_hospitalier_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Hôpitaux du district</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hôpital central d'Ostrobotnie centrale, Kokkola</t>
         </is>
